--- a/bin/kangblog用户故事.xlsx
+++ b/bin/kangblog用户故事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>使用Model 定义Model来处理 数据库的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在/guokr 页面中使用 async</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 async 查看列表详情 和 某一篇 文章，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加滚动加载，每次获取10条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够使用滚动加载 分页数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -614,17 +638,29 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
